--- a/TestData/工作情况汇总.xlsx
+++ b/TestData/工作情况汇总.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="144">
   <si>
     <t>序号</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>项目22</t>
+  </si>
+  <si>
+    <t>测试项目</t>
   </si>
   <si>
     <t>热污染</t>
@@ -457,10 +460,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -479,6 +482,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -486,16 +497,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -508,16 +527,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -531,39 +542,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -593,7 +574,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -602,7 +583,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -629,7 +632,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,55 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,91 +770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +788,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,15 +841,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -862,56 +856,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,6 +884,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -943,10 +946,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -955,19 +958,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -976,112 +979,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1441,12 +1444,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2457,16 +2460,39 @@
         <v>23</v>
       </c>
     </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="6">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I10 I17 I18 I19 I23 I24 I25 I33 I34 I35 I36 I37 I2:I5 I7:I9 I11:I13 I14:I16 I20:I22 I26:I29 I30:I32 I38:I65536">
+      <formula1>"主办,协办"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B6 B7 B19 B22 B24 B25 B27 B29 B30 B32 B33 B35 B2:B4 B8:B9 B10:B16 B20:B21">
       <formula1>"测试一组,测试二组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4 F5:F6 F7:F9 F10:F13 F14:F19 F20:F22 F23:F29 F30:F36 F37:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37 F2:F4 F5:F6 F7:F9 F10:F13 F14:F19 F20:F22 F23:F29 F30:F36 F38:F65536">
       <formula1>"未开始,执行中,挂起,末次准出,无实际工作,已结束"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I10 I17 I18 I19 I23 I24 I25 I33 I34 I35 I36 I2:I5 I7:I9 I11:I13 I14:I16 I20:I22 I26:I29 I30:I32 I37:I65536">
-      <formula1>"主办,协办"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2510,7 +2536,7 @@
     </row>
     <row r="2" spans="4:11">
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -3517,14 +3543,14 @@
     <mergeCell ref="A3:I3"/>
   </mergeCells>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9 I13 I20 I21 I22 I26 I27 I28 I36 I37 I38 I39 I5:I8 I10:I12 I14:I16 I17:I19 I23:I25 I29:I32 I33:I35 I40:I65536">
+      <formula1>"主办,协办"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B9 B10 B22 B25 B27 B28 B30 B32 B33 B35 B36 B38 B5:B7 B11:B12 B13:B19 B23:B24">
       <formula1>"测试一组,测试二组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F7 F8:F9 F10:F12 F13:F16 F17:F22 F23:F25 F26:F32 F33:F39 F40:F65536">
       <formula1>"未开始,执行中,挂起,末次准出,无实际工作,已结束"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9 I13 I20 I21 I22 I26 I27 I28 I36 I37 I38 I39 I5:I8 I10:I12 I14:I16 I17:I19 I23:I25 I29:I32 I33:I35 I40:I65536">
-      <formula1>"主办,协办"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3555,16 +3581,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3572,13 +3598,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3586,13 +3612,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3600,13 +3626,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3614,41 +3640,41 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3656,13 +3682,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3670,101 +3696,101 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="4:5">
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="4:5">
       <c r="D14" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="4:5">
       <c r="D15" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="D18" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
